--- a/dataset/packetout.xlsx
+++ b/dataset/packetout.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,1840 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04/25/2021 16:54:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04/25/2021 16:56:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04/25/2021 16:58:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:00:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:04:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:04:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:06:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:06:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:08:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:10:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:12:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:12:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:14:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:14:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:16:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:18:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:20:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:22:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:24:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:25:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:27:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:27:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:29:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:31:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:37:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:39:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:41:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:44:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:46:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:48:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:50:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:57:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:59:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:01:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:04:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:04:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:06:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:06:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:08:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:28:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:28:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:30:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:30:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:34:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:34:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:36:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:38:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:38:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:41:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:41:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:53:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:56:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:58:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:02:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:02:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:04:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:06:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:08:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:08:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:11:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:13:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:23:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:25:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:28:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:30:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:32:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:34:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:36:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:38:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:40:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:42:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:45:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:47:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:49:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:51:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:53:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:55:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:57:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:06:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:06:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:08:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:10:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:10:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:12:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:19:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:21:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:23:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:25:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:27:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:27:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:29:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:29:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:32:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:32:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:34:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:34:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:36:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:36:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:38:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:38:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:40:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:44:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:47:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:49:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:51:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:55:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:57:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:02:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:02:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:04:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:06:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:06:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:08:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:10:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:28:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:30:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:33:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:35:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:38:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:40:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:43:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:45:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:48:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:50:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:52:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:55:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:57:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:57:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:02:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:02:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:05:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:05:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:07:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:09:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:14:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:21:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:24:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:26:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:26:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:28:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:28:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:31:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:33:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:33:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:37:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:37:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:40:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:49:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:51:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:53:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:58:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:02:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:04:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:06:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:11:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:14:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:14:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:16:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:18:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:18:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:23:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:28:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:33:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:35:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:37:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:39:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:42:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:47:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:49:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:52:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:52:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:55:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:55:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:57:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:57:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:00:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:00:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:08:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:14:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:16:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:25:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:27:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:27:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:30:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:30:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:33:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:33:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:35:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:40:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:48:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:55:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:58:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/packetout.xlsx
+++ b/dataset/packetout.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2276,6 +2276,41 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:43:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:51:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:54:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:57:56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/packetout.xlsx
+++ b/dataset/packetout.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,6 +2311,20 @@
         </is>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>04/27/2021 19:01:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>04/27/2021 19:03:50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/packetout.xlsx
+++ b/dataset/packetout.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/04/2021 00:02:33</t>
+          <t>05/05/2021 01:39:46</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/04/2021 00:03:34</t>
+          <t>05/05/2021 01:40:48</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -458,7 +458,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/04/2021 00:04:36</t>
+          <t>05/05/2021 01:41:50</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/04/2021 00:05:38</t>
+          <t>05/05/2021 01:42:55</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -478,7 +478,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/04/2021 00:06:41</t>
+          <t>05/05/2021 01:44:00</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -488,7 +488,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/04/2021 00:07:40</t>
+          <t>05/05/2021 01:45:04</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -498,7 +498,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/04/2021 00:08:43</t>
+          <t>05/05/2021 01:46:09</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -508,7 +508,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05/04/2021 00:09:46</t>
+          <t>05/05/2021 01:51:31</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -518,7 +518,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/04/2021 00:10:51</t>
+          <t>05/05/2021 01:52:37</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -528,7 +528,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05/04/2021 00:11:57</t>
+          <t>05/05/2021 01:53:43</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -538,7 +538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/04/2021 00:17:15</t>
+          <t>05/05/2021 01:54:50</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -548,7 +548,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05/04/2021 00:18:24</t>
+          <t>05/05/2021 02:00:08</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/04/2021 00:19:32</t>
+          <t>05/05/2021 02:01:17</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -568,7 +568,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05/04/2021 00:36:09</t>
+          <t>05/05/2021 02:06:33</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -578,7 +578,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05/04/2021 00:38:19</t>
+          <t>05/05/2021 02:07:38</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -588,7 +588,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05/04/2021 00:43:40</t>
+          <t>05/05/2021 02:12:49</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -598,7 +598,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05/04/2021 00:44:48</t>
+          <t>05/05/2021 02:13:53</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -608,7 +608,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05/04/2021 00:50:03</t>
+          <t>05/05/2021 02:14:57</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -618,7 +618,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05/04/2021 00:51:11</t>
+          <t>05/05/2021 02:16:00</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -628,7 +628,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05/04/2021 00:52:20</t>
+          <t>05/05/2021 02:17:04</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -638,7 +638,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05/04/2021 00:53:29</t>
+          <t>05/05/2021 02:18:07</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -648,7 +648,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05/04/2021 00:54:38</t>
+          <t>05/05/2021 02:19:12</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -658,7 +658,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05/04/2021 00:55:46</t>
+          <t>05/05/2021 02:20:16</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -668,7 +668,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05/04/2021 00:56:56</t>
+          <t>05/05/2021 02:21:21</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -678,7 +678,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>05/04/2021 00:58:08</t>
+          <t>05/05/2021 02:21:31</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -688,7 +688,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05/04/2021 00:59:19</t>
+          <t>05/05/2021 02:21:40</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -698,7 +698,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05/04/2021 01:00:29</t>
+          <t>05/05/2021 02:21:48</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -708,7 +708,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05/04/2021 01:01:42</t>
+          <t>05/05/2021 02:21:58</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -718,7 +718,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05/04/2021 01:02:51</t>
+          <t>05/05/2021 02:22:08</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -728,7 +728,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05/04/2021 01:04:06</t>
+          <t>05/05/2021 02:22:18</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -738,7 +738,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05/04/2021 01:05:18</t>
+          <t>05/05/2021 02:22:30</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -748,7 +748,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05/04/2021 01:06:29</t>
+          <t>05/05/2021 02:22:40</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -758,200 +758,10 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05/04/2021 01:07:40</t>
+          <t>05/05/2021 02:22:49</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:08:53</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:12:26</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:12:53</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:14:17</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:16:06</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:17:23</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:18:35</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:19:47</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:21:01</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:22:16</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:25:09</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:26:26</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:31:48</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:37:10</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:39:40</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:49:48</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:50:44</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:54:54</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:56:09</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
         <v>0</v>
       </c>
     </row>
